--- a/SupMat.xlsx
+++ b/SupMat.xlsx
@@ -15,9 +15,6 @@
     <sheet name="dw" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="xdata1">ROW(OFFSET(#REF!,0,0,513,1))-19*INT((-1/2+ROW(OFFSET(#REF!,0,0,513,1)))/19)</definedName>
     <definedName name="xdata10">ROW(OFFSET(#REF!,0,0,513,1))-19*INT((-1/2+ROW(OFFSET(#REF!,0,0,513,1)))/19)</definedName>
@@ -52,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="201">
   <si>
     <t>DW concentration (ug/g dw)</t>
   </si>
@@ -469,6 +466,192 @@
   </si>
   <si>
     <t>0.68±0.45</t>
+  </si>
+  <si>
+    <t>0.19±0.30</t>
+  </si>
+  <si>
+    <t>0.0024±0.0055</t>
+  </si>
+  <si>
+    <t>7.4±7.5</t>
+  </si>
+  <si>
+    <t>0.43±0.71</t>
+  </si>
+  <si>
+    <t>4.3±3.7</t>
+  </si>
+  <si>
+    <t>3.3±3.5</t>
+  </si>
+  <si>
+    <t>4.0±3.9</t>
+  </si>
+  <si>
+    <t>0.26±0.71</t>
+  </si>
+  <si>
+    <t>0.12±0.31</t>
+  </si>
+  <si>
+    <t>0.12±0.17</t>
+  </si>
+  <si>
+    <t>10±11</t>
+  </si>
+  <si>
+    <t>0.28±0.25</t>
+  </si>
+  <si>
+    <t>1.4±1.7</t>
+  </si>
+  <si>
+    <t>0.31±0.84</t>
+  </si>
+  <si>
+    <t>349±282</t>
+  </si>
+  <si>
+    <t>100±63</t>
+  </si>
+  <si>
+    <t>53±33</t>
+  </si>
+  <si>
+    <t>40±30</t>
+  </si>
+  <si>
+    <t>1.5±4.8</t>
+  </si>
+  <si>
+    <t>30±16</t>
+  </si>
+  <si>
+    <t>0.14±0.45</t>
+  </si>
+  <si>
+    <t>3.2±1.9</t>
+  </si>
+  <si>
+    <t>14±9.6</t>
+  </si>
+  <si>
+    <t>3.7±3.2</t>
+  </si>
+  <si>
+    <t>0.074±0.061</t>
+  </si>
+  <si>
+    <t>0.0085±0.013</t>
+  </si>
+  <si>
+    <t>0.21±0.67</t>
+  </si>
+  <si>
+    <t>55±39</t>
+  </si>
+  <si>
+    <t>16±9.1</t>
+  </si>
+  <si>
+    <t>14±11</t>
+  </si>
+  <si>
+    <t>0.20±0.51</t>
+  </si>
+  <si>
+    <t>0.017±0.0041</t>
+  </si>
+  <si>
+    <t>0.053±0.024</t>
+  </si>
+  <si>
+    <t>0.027±0.0088</t>
+  </si>
+  <si>
+    <t>0.047±0.0079</t>
+  </si>
+  <si>
+    <t>0.50±0.082</t>
+  </si>
+  <si>
+    <t>0.010±0.0037</t>
+  </si>
+  <si>
+    <t>0.24±0.086</t>
+  </si>
+  <si>
+    <t>0.24±0.046</t>
+  </si>
+  <si>
+    <t>0.27±0.084</t>
+  </si>
+  <si>
+    <t>0.0087±0.0022</t>
+  </si>
+  <si>
+    <t>0.0065±0.0019</t>
+  </si>
+  <si>
+    <t>0.0039±0.0010</t>
+  </si>
+  <si>
+    <t>0.43±0.078</t>
+  </si>
+  <si>
+    <t>0.033±0.0075</t>
+  </si>
+  <si>
+    <t>0.095±0.049</t>
+  </si>
+  <si>
+    <t>52±11</t>
+  </si>
+  <si>
+    <t>9.3±9.6</t>
+  </si>
+  <si>
+    <t>8.5±4.4</t>
+  </si>
+  <si>
+    <t>5.4±3.3</t>
+  </si>
+  <si>
+    <t>0.044±0.12</t>
+  </si>
+  <si>
+    <t>4.4±1.9</t>
+  </si>
+  <si>
+    <t>0.13±0.30</t>
+  </si>
+  <si>
+    <t>1.0±0.74</t>
+  </si>
+  <si>
+    <t>1.6±0.88</t>
+  </si>
+  <si>
+    <t>1.1±0.92</t>
+  </si>
+  <si>
+    <t>0.0069±0.015</t>
+  </si>
+  <si>
+    <t>0.0044±0.013</t>
+  </si>
+  <si>
+    <t>0.0054±0.018</t>
+  </si>
+  <si>
+    <t>12±2.9</t>
+  </si>
+  <si>
+    <t>1.7±1.2</t>
+  </si>
+  <si>
+    <t>2.9±1.2</t>
   </si>
 </sst>
 </file>
@@ -476,10 +659,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -569,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -579,16 +762,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -598,34 +781,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -635,14 +818,47 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,49 +875,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="dw"/>
-      <sheetName val="Graphical abstract"/>
-      <sheetName val="fluxes_2"/>
-      <sheetName val="fluxes (2)"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Expected Cop in plume"/>
-      <sheetName val="fluxes"/>
-      <sheetName val="Sediments"/>
-      <sheetName val="Ratios_HID"/>
-      <sheetName val="Ratios_HID1"/>
-      <sheetName val="%"/>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Pruebas t y z (2 muestras)1"/>
-      <sheetName val="Pruebas t y z (2 muestras)"/>
-      <sheetName val="Graphs"/>
-      <sheetName val="Sheet11"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -967,13 +1140,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMG40"/>
+  <dimension ref="A1:AMG44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9754,20 +9927,48 @@
       <c r="F20" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
@@ -9793,55 +9994,55 @@
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="34">
         <v>348.99869073761243</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="31">
         <v>99.539467372376436</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="31">
         <v>53.484436594572671</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="31">
         <v>40.358252219433581</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="16">
         <v>1.51084270391904</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="31">
         <v>29.971464981110689</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="13">
         <v>0.14291722940864499</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="16">
         <v>3.2380512062366202</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="31">
         <v>13.732294229016301</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="16">
         <v>3.6861242106247203</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="12">
         <v>7.3955179999999995E-2</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="32">
         <v>8.5181100000000006E-3</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="13">
         <v>0.21117431402152098</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="31">
         <v>54.749336820217557</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="31">
         <v>16.418799805913668</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="31">
         <v>14.195121484967498</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="13">
         <v>0.19810494785577951</v>
       </c>
       <c r="U21" s="10">
@@ -9895,55 +10096,55 @@
     </row>
     <row r="22" spans="1:1014" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="D22" s="9">
+      <c r="D22" s="34">
         <v>281.69599266664369</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="31">
         <v>63.215002533841357</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="31">
         <v>33.436098363775372</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="31">
         <v>30.409850820576978</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="16">
         <v>4.7777041306315695</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="31">
         <v>16.253028380390511</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="13">
         <v>0.45174232462195674</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="16">
         <v>1.8677166995302346</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="16">
         <v>9.5664804955686797</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="16">
         <v>3.1743336278028904</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="12">
         <v>6.1469573932435149E-2</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="12">
         <v>1.2723734096775382E-2</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="13">
         <v>0.66779181563163792</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="31">
         <v>39.020542158300131</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="16">
         <v>9.1218162584406386</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="31">
         <v>10.555486327858659</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="13">
         <v>0.51171773745288818</v>
       </c>
       <c r="U22" s="10">
@@ -9996,416 +10197,374 @@
       </c>
     </row>
     <row r="23" spans="1:1014" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1.661869531551884E-2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5.2556283340312301E-2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2.7073082492955258E-2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>4.6832142372052944E-2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1.1945326846091963E-4</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.50231273173103896</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1.0364363005591976E-2</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.23945825810121141</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.24153383229920902</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.26758477179130202</v>
-      </c>
-      <c r="N23" s="1">
-        <v>8.6597790288375134E-3</v>
-      </c>
-      <c r="O23" s="1">
-        <v>6.4652287989853743E-3</v>
-      </c>
-      <c r="P23" s="1">
-        <v>3.91735998791153E-3</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.43216376912231436</v>
-      </c>
-      <c r="R23" s="1">
-        <v>3.3232539999999998E-2</v>
-      </c>
-      <c r="S23" s="1">
-        <v>9.4791664321653854E-2</v>
-      </c>
-      <c r="T23" s="1">
-        <v>1.0558290713292066E-2</v>
-      </c>
-      <c r="U23" s="10">
-        <v>1.9942422456906486</v>
-      </c>
-      <c r="V23" s="10">
-        <v>0.14319965678930024</v>
-      </c>
-      <c r="W23" s="10">
-        <v>1.2763789647561765</v>
-      </c>
-      <c r="X23" s="10">
-        <v>0.14249985502285745</v>
-      </c>
-      <c r="Y23" s="10">
-        <v>1.6618695315518838E-5</v>
-      </c>
-      <c r="Z23" s="11">
-        <v>0.2551320560690658</v>
-      </c>
-      <c r="AA23" s="11">
-        <v>0.74742082177908942</v>
-      </c>
-      <c r="AB23" s="11">
-        <v>0.7480377692045439</v>
-      </c>
-      <c r="AC23" s="11">
-        <v>0.53787895583415357</v>
-      </c>
-      <c r="AD23" s="11">
-        <v>0.10113820419659389</v>
-      </c>
-      <c r="AE23" s="11">
-        <v>0.66219131644699813</v>
-      </c>
-      <c r="AF23" s="11">
-        <v>3.845206185770015E-2</v>
-      </c>
-      <c r="AG23" s="11">
-        <v>0.38352430647976554</v>
-      </c>
-      <c r="AH23" s="11">
-        <v>0.15649505895825302</v>
-      </c>
-      <c r="AI23" s="11">
-        <v>0.94770336597333116</v>
-      </c>
-      <c r="AJ23" s="11">
-        <v>7.4166627522163103E-2</v>
+      <c r="B23" s="5"/>
+      <c r="D23" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:1014" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="D24" s="9">
-        <v>4.1057563262746778E-3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2.3949211423969181E-2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>8.8144744241707602E-3</v>
-      </c>
-      <c r="G24" s="1">
-        <v>7.8656723926431565E-3</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1.8241861322024615E-5</v>
-      </c>
-      <c r="I24" s="1">
-        <v>8.2314946133447947E-2</v>
-      </c>
-      <c r="J24" s="1">
-        <v>3.7215455482144852E-3</v>
-      </c>
-      <c r="K24" s="1">
-        <v>8.6164586120450831E-2</v>
-      </c>
-      <c r="L24" s="1">
-        <v>4.6155046359558694E-2</v>
-      </c>
-      <c r="M24" s="1">
-        <v>8.4009707906735023E-2</v>
-      </c>
-      <c r="N24" s="1">
-        <v>2.1686841730557847E-3</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1.9269233342650129E-3</v>
-      </c>
-      <c r="P24" s="1">
-        <v>8.3052672840681018E-4</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>7.8048967548831463E-2</v>
-      </c>
-      <c r="R24" s="1">
-        <v>7.507634807181301E-3</v>
-      </c>
-      <c r="S24" s="1">
-        <v>4.8572560748156218E-2</v>
-      </c>
-      <c r="T24" s="1">
-        <v>3.1390624720455344E-3</v>
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="33">
+        <v>1.661869531551884E-2</v>
+      </c>
+      <c r="E24" s="12">
+        <v>5.2556283340312301E-2</v>
+      </c>
+      <c r="F24" s="12">
+        <v>2.7073082492955258E-2</v>
+      </c>
+      <c r="G24" s="12">
+        <v>4.6832142372052944E-2</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1.1945326846091963E-4</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0.50231273173103896</v>
+      </c>
+      <c r="J24" s="12">
+        <v>1.0364363005591976E-2</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0.23945825810121141</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0.24153383229920902</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0.26758477179130202</v>
+      </c>
+      <c r="N24" s="32">
+        <v>8.6597790288375134E-3</v>
+      </c>
+      <c r="O24" s="32">
+        <v>6.4652287989853743E-3</v>
+      </c>
+      <c r="P24" s="32">
+        <v>3.91735998791153E-3</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>0.43216376912231436</v>
+      </c>
+      <c r="R24" s="12">
+        <v>3.3232539999999998E-2</v>
+      </c>
+      <c r="S24" s="12">
+        <v>9.4791664321653854E-2</v>
+      </c>
+      <c r="T24" s="12">
+        <v>1.0558290713292066E-2</v>
       </c>
       <c r="U24" s="10">
-        <v>0.18751125377545927</v>
+        <v>1.9942422456906486</v>
       </c>
       <c r="V24" s="10">
-        <v>2.8033438620289789E-2</v>
+        <v>0.14319965678930024</v>
       </c>
       <c r="W24" s="10">
-        <v>0.11533824577736587</v>
+        <v>1.2763789647561765</v>
       </c>
       <c r="X24" s="10">
-        <v>4.8357832351763885E-2</v>
+        <v>0.14249985502285745</v>
       </c>
       <c r="Y24" s="10">
-        <v>4.1057563262746825E-6</v>
+        <v>1.6618695315518838E-5</v>
       </c>
       <c r="Z24" s="11">
-        <v>5.7654659843388689E-2</v>
+        <v>0.2551320560690658</v>
       </c>
       <c r="AA24" s="11">
-        <v>6.2025533683059166E-2</v>
+        <v>0.74742082177908942</v>
       </c>
       <c r="AB24" s="11">
-        <v>2.6700228339277567E-2</v>
+        <v>0.7480377692045439</v>
       </c>
       <c r="AC24" s="11">
-        <v>1.5671884118600994E-2</v>
+        <v>0.53787895583415357</v>
       </c>
       <c r="AD24" s="11">
-        <v>1.9285739351411868E-2</v>
+        <v>0.10113820419659389</v>
       </c>
       <c r="AE24" s="11">
-        <v>7.4863303919949331E-2</v>
+        <v>0.66219131644699813</v>
       </c>
       <c r="AF24" s="11">
-        <v>1.2021796313215559E-2</v>
+        <v>3.845206185770015E-2</v>
       </c>
       <c r="AG24" s="11">
-        <v>5.9949709109491739E-2</v>
+        <v>0.38352430647976554</v>
       </c>
       <c r="AH24" s="11">
-        <v>7.5061733962193442E-2</v>
+        <v>0.15649505895825302</v>
       </c>
       <c r="AI24" s="11">
-        <v>1.8444288041956251E-2</v>
+        <v>0.94770336597333116</v>
       </c>
       <c r="AJ24" s="11">
-        <v>2.492644369572505E-2</v>
+        <v>7.4166627522163103E-2</v>
       </c>
     </row>
     <row r="25" spans="1:1014" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="20">
-        <v>51.575059375852014</v>
-      </c>
-      <c r="E25" s="20">
-        <v>9.345961253448575</v>
-      </c>
-      <c r="F25" s="20">
-        <v>8.5081406818727228</v>
-      </c>
-      <c r="G25" s="20">
-        <v>5.3648528033720924</v>
-      </c>
-      <c r="H25" s="20">
-        <v>4.4064891194361445E-2</v>
-      </c>
-      <c r="I25" s="20">
-        <v>4.3592028465973787</v>
-      </c>
-      <c r="J25" s="20">
-        <v>0.12881201039339102</v>
-      </c>
-      <c r="K25" s="20">
-        <v>1.0404124445407237</v>
-      </c>
-      <c r="L25" s="20">
-        <v>1.6281042263307279</v>
-      </c>
-      <c r="M25" s="20">
-        <v>1.126635828717238</v>
-      </c>
-      <c r="N25" s="20">
-        <v>6.8878487412634181E-3</v>
-      </c>
-      <c r="O25" s="20">
-        <v>4.3800483528733851E-3</v>
-      </c>
-      <c r="P25" s="20">
-        <v>5.3973055079838822E-3</v>
-      </c>
-      <c r="Q25" s="20">
-        <v>12.316269350739518</v>
-      </c>
-      <c r="R25" s="20">
-        <v>1.6731156433982139</v>
-      </c>
-      <c r="S25" s="20">
-        <v>2.8727034409409384</v>
-      </c>
-      <c r="T25" s="20">
-        <v>0</v>
-      </c>
-      <c r="U25" s="20">
-        <v>100</v>
-      </c>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="ALW25" s="2"/>
-      <c r="ALX25" s="2"/>
-      <c r="ALY25" s="2"/>
-      <c r="ALZ25" s="2"/>
+      <c r="B25" s="7"/>
+      <c r="D25" s="35">
+        <v>4.1057563262746778E-3</v>
+      </c>
+      <c r="E25" s="12">
+        <v>2.3949211423969181E-2</v>
+      </c>
+      <c r="F25" s="32">
+        <v>8.8144744241707602E-3</v>
+      </c>
+      <c r="G25" s="32">
+        <v>7.8656723926431565E-3</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1.8241861322024615E-5</v>
+      </c>
+      <c r="I25" s="12">
+        <v>8.2314946133447947E-2</v>
+      </c>
+      <c r="J25" s="32">
+        <v>3.7215455482144852E-3</v>
+      </c>
+      <c r="K25" s="12">
+        <v>8.6164586120450831E-2</v>
+      </c>
+      <c r="L25" s="12">
+        <v>4.6155046359558694E-2</v>
+      </c>
+      <c r="M25" s="12">
+        <v>8.4009707906735023E-2</v>
+      </c>
+      <c r="N25" s="32">
+        <v>2.1686841730557847E-3</v>
+      </c>
+      <c r="O25" s="32">
+        <v>1.9269233342650129E-3</v>
+      </c>
+      <c r="P25" s="32">
+        <v>8.3052672840681018E-4</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>7.8048967548831463E-2</v>
+      </c>
+      <c r="R25" s="32">
+        <v>7.507634807181301E-3</v>
+      </c>
+      <c r="S25" s="12">
+        <v>4.8572560748156218E-2</v>
+      </c>
+      <c r="T25" s="32">
+        <v>3.1390624720455344E-3</v>
+      </c>
+      <c r="U25" s="10">
+        <v>0.18751125377545927</v>
+      </c>
+      <c r="V25" s="10">
+        <v>2.8033438620289789E-2</v>
+      </c>
+      <c r="W25" s="10">
+        <v>0.11533824577736587</v>
+      </c>
+      <c r="X25" s="10">
+        <v>4.8357832351763885E-2</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>4.1057563262746825E-6</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>5.7654659843388689E-2</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>6.2025533683059166E-2</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>2.6700228339277567E-2</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>1.5671884118600994E-2</v>
+      </c>
+      <c r="AD25" s="11">
+        <v>1.9285739351411868E-2</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>7.4863303919949331E-2</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>1.2021796313215559E-2</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>5.9949709109491739E-2</v>
+      </c>
+      <c r="AH25" s="11">
+        <v>7.5061733962193442E-2</v>
+      </c>
+      <c r="AI25" s="11">
+        <v>1.8444288041956251E-2</v>
+      </c>
+      <c r="AJ25" s="11">
+        <v>2.492644369572505E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:1014" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="20">
-        <v>10.849398991751753</v>
-      </c>
-      <c r="E26" s="20">
-        <v>9.5755405979748875</v>
-      </c>
-      <c r="F26" s="20">
-        <v>4.4189360332794347</v>
-      </c>
-      <c r="G26" s="20">
-        <v>3.3410638985875472</v>
-      </c>
-      <c r="H26" s="20">
-        <v>0.12368180084395186</v>
-      </c>
-      <c r="I26" s="20">
-        <v>1.8567787104271676</v>
-      </c>
-      <c r="J26" s="20">
-        <v>0.30394786347043518</v>
-      </c>
-      <c r="K26" s="20">
-        <v>0.73729406997864722</v>
-      </c>
-      <c r="L26" s="20">
-        <v>0.88200643842343973</v>
-      </c>
-      <c r="M26" s="20">
-        <v>0.91878117933249293</v>
-      </c>
-      <c r="N26" s="20">
-        <v>1.4984463813078131E-2</v>
-      </c>
-      <c r="O26" s="20">
-        <v>1.293784453192233E-2</v>
-      </c>
-      <c r="P26" s="20">
-        <v>1.7976957076329458E-2</v>
-      </c>
-      <c r="Q26" s="20">
-        <v>2.8551206394831805</v>
-      </c>
-      <c r="R26" s="20">
-        <v>1.1556986657866477</v>
-      </c>
-      <c r="S26" s="20">
-        <v>1.2153682670845296</v>
-      </c>
-      <c r="T26" s="20">
-        <v>0</v>
-      </c>
-      <c r="U26" s="20">
-        <v>1.9430792286955817E-14</v>
-      </c>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="ALW26" s="2"/>
-      <c r="ALX26" s="2"/>
-      <c r="ALY26" s="2"/>
-      <c r="ALZ26" s="2"/>
+      <c r="B26" s="7"/>
+      <c r="D26" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="27" spans="1:1014" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="7" t="s">
-        <v>38</v>
+      <c r="A27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="21">
-        <v>1.3293616953299419</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1.1927697115129312</v>
-      </c>
-      <c r="F27" s="21">
-        <v>3.8589034748697193</v>
-      </c>
-      <c r="G27" s="21">
-        <v>1.0935269940451195</v>
-      </c>
-      <c r="H27" s="21">
-        <v>1.2944397195338901E-2</v>
-      </c>
-      <c r="I27" s="21">
-        <v>19.260252107137685</v>
-      </c>
-      <c r="J27" s="21">
-        <v>0.6164386682499754</v>
-      </c>
-      <c r="K27" s="21">
-        <v>14.686843594539788</v>
-      </c>
-      <c r="L27" s="21">
-        <v>8.6960820496494549</v>
-      </c>
-      <c r="M27" s="21">
-        <v>13.116090635611421</v>
-      </c>
-      <c r="N27" s="21">
-        <v>0.63774858568812121</v>
-      </c>
-      <c r="O27" s="21">
-        <v>0.2858377282829615</v>
-      </c>
-      <c r="P27" s="21">
-        <v>0.70671663727788359</v>
-      </c>
-      <c r="Q27" s="21">
-        <v>25.765850506144858</v>
-      </c>
-      <c r="R27" s="21">
-        <v>1.5540216854759628</v>
-      </c>
-      <c r="S27" s="21">
-        <v>6.6339770623954815</v>
-      </c>
-      <c r="T27" s="21">
-        <v>0.89580252732156507</v>
-      </c>
-      <c r="U27" s="21">
-        <v>100.3431680607282</v>
+      <c r="D27" s="36">
+        <v>51.575059375852014</v>
+      </c>
+      <c r="E27" s="20">
+        <v>9.345961253448575</v>
+      </c>
+      <c r="F27" s="20">
+        <v>8.5081406818727228</v>
+      </c>
+      <c r="G27" s="20">
+        <v>5.3648528033720924</v>
+      </c>
+      <c r="H27" s="38">
+        <v>4.4064891194361445E-2</v>
+      </c>
+      <c r="I27" s="20">
+        <v>4.3592028465973787</v>
+      </c>
+      <c r="J27" s="37">
+        <v>0.12881201039339102</v>
+      </c>
+      <c r="K27" s="20">
+        <v>1.0404124445407237</v>
+      </c>
+      <c r="L27" s="20">
+        <v>1.6281042263307279</v>
+      </c>
+      <c r="M27" s="20">
+        <v>1.126635828717238</v>
+      </c>
+      <c r="N27" s="39">
+        <v>6.8878487412634181E-3</v>
+      </c>
+      <c r="O27" s="39">
+        <v>4.3800483528733851E-3</v>
+      </c>
+      <c r="P27" s="39">
+        <v>5.3973055079838822E-3</v>
+      </c>
+      <c r="Q27" s="36">
+        <v>12.316269350739518</v>
+      </c>
+      <c r="R27" s="20">
+        <v>1.6731156433982139</v>
+      </c>
+      <c r="S27" s="20">
+        <v>2.8727034409409384</v>
+      </c>
+      <c r="T27" s="38">
+        <v>0</v>
+      </c>
+      <c r="U27" s="20">
+        <v>100</v>
       </c>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
@@ -10421,62 +10580,62 @@
       <c r="ALZ27" s="2"/>
     </row>
     <row r="28" spans="1:1014" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="22">
-        <v>1.2569495182269215</v>
-      </c>
-      <c r="E28" s="22">
-        <v>1.0664772442753752</v>
-      </c>
-      <c r="F28" s="22">
-        <v>4.748047184950245</v>
-      </c>
-      <c r="G28" s="22">
-        <v>2.1728138661985876</v>
-      </c>
-      <c r="H28" s="22">
-        <v>4.2726785079316106E-2</v>
-      </c>
-      <c r="I28" s="22">
-        <v>5.4279125766079552</v>
-      </c>
-      <c r="J28" s="22">
-        <v>1.695631908186797</v>
-      </c>
-      <c r="K28" s="22">
-        <v>7.8701048658633068</v>
-      </c>
-      <c r="L28" s="22">
-        <v>4.4116457483655775</v>
-      </c>
-      <c r="M28" s="22">
-        <v>10.584936787724322</v>
-      </c>
-      <c r="N28" s="22">
-        <v>1.7762212298799405</v>
-      </c>
-      <c r="O28" s="22">
-        <v>0.72067574661791522</v>
-      </c>
-      <c r="P28" s="22">
-        <v>1.5347009791547535</v>
-      </c>
-      <c r="Q28" s="22">
-        <v>11.671135796325466</v>
-      </c>
-      <c r="R28" s="22">
-        <v>2.1840822851988824</v>
-      </c>
-      <c r="S28" s="22">
-        <v>7.5294606334954262</v>
-      </c>
-      <c r="T28" s="22">
-        <v>3.3962126249136091</v>
-      </c>
-      <c r="U28" s="22">
-        <v>1.9713504231441061</v>
+      <c r="D28" s="36">
+        <v>10.849398991751753</v>
+      </c>
+      <c r="E28" s="20">
+        <v>9.5755405979748875</v>
+      </c>
+      <c r="F28" s="20">
+        <v>4.4189360332794347</v>
+      </c>
+      <c r="G28" s="20">
+        <v>3.3410638985875472</v>
+      </c>
+      <c r="H28" s="37">
+        <v>0.12368180084395186</v>
+      </c>
+      <c r="I28" s="20">
+        <v>1.8567787104271676</v>
+      </c>
+      <c r="J28" s="37">
+        <v>0.30394786347043518</v>
+      </c>
+      <c r="K28" s="37">
+        <v>0.73729406997864722</v>
+      </c>
+      <c r="L28" s="37">
+        <v>0.88200643842343973</v>
+      </c>
+      <c r="M28" s="37">
+        <v>0.91878117933249293</v>
+      </c>
+      <c r="N28" s="38">
+        <v>1.4984463813078131E-2</v>
+      </c>
+      <c r="O28" s="38">
+        <v>1.293784453192233E-2</v>
+      </c>
+      <c r="P28" s="38">
+        <v>1.7976957076329458E-2</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>2.8551206394831805</v>
+      </c>
+      <c r="R28" s="20">
+        <v>1.1556986657866477</v>
+      </c>
+      <c r="S28" s="20">
+        <v>1.2153682670845296</v>
+      </c>
+      <c r="T28" s="38">
+        <v>0</v>
+      </c>
+      <c r="U28" s="20">
+        <v>1.9430792286955817E-14</v>
       </c>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
@@ -10492,294 +10651,306 @@
       <c r="ALZ28" s="2"/>
     </row>
     <row r="29" spans="1:1014" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A29" s="17"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="23">
-        <v>57.609455762090221</v>
-      </c>
-      <c r="E29" s="23">
-        <v>3.2631259005619948</v>
-      </c>
-      <c r="F29" s="23">
-        <v>9.0004245902664888</v>
-      </c>
-      <c r="G29" s="23">
-        <v>5.0494788660708378</v>
-      </c>
-      <c r="H29" s="23">
-        <v>1.7377676162307044E-2</v>
-      </c>
-      <c r="I29" s="23">
-        <v>4.159717130241571</v>
-      </c>
-      <c r="J29" s="23">
-        <v>0.10532380902092278</v>
-      </c>
-      <c r="K29" s="23">
-        <v>0.77282948351755265</v>
-      </c>
-      <c r="L29" s="23">
-        <v>1.3501585397027243</v>
-      </c>
-      <c r="M29" s="23">
-        <v>0.82312792677926372</v>
-      </c>
-      <c r="N29" s="23">
-        <v>5.5189334130878098E-3</v>
-      </c>
-      <c r="O29" s="23">
-        <v>2.9463964373270821E-3</v>
-      </c>
-      <c r="P29" s="23">
-        <v>3.5114940209210179E-3</v>
-      </c>
-      <c r="Q29" s="23">
-        <v>13.239396671071894</v>
-      </c>
-      <c r="R29" s="23">
-        <v>1.7246413827608007</v>
-      </c>
-      <c r="S29" s="23">
-        <v>2.8729654378820864</v>
-      </c>
-      <c r="T29" s="23">
-        <v>0</v>
-      </c>
-      <c r="U29" s="23">
-        <v>100</v>
-      </c>
+      <c r="D29" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q29" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="R29" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="S29" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="ALW29" s="2"/>
+      <c r="ALX29" s="2"/>
+      <c r="ALY29" s="2"/>
+      <c r="ALZ29" s="2"/>
     </row>
     <row r="30" spans="1:1014" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="23">
-        <v>9.0983977460375183</v>
-      </c>
-      <c r="E30" s="23">
-        <v>3.0491285863437021</v>
-      </c>
-      <c r="F30" s="23">
-        <v>3.1000025320395799</v>
-      </c>
-      <c r="G30" s="23">
-        <v>2.6297238406540684</v>
-      </c>
-      <c r="H30" s="23">
-        <v>6.2656102451606327E-2</v>
-      </c>
-      <c r="I30" s="23">
-        <v>2.2981314819106231</v>
-      </c>
-      <c r="J30" s="23">
-        <v>0.14477773619303685</v>
-      </c>
-      <c r="K30" s="23">
-        <v>0.74098076601912</v>
-      </c>
-      <c r="L30" s="23">
-        <v>0.89198135901810893</v>
-      </c>
-      <c r="M30" s="23">
-        <v>1.0361276677932736</v>
-      </c>
-      <c r="N30" s="23">
-        <v>8.8960799587407945E-3</v>
-      </c>
-      <c r="O30" s="23">
-        <v>6.555138014742906E-3</v>
-      </c>
-      <c r="P30" s="23">
-        <v>8.8267154950196994E-3</v>
-      </c>
-      <c r="Q30" s="23">
-        <v>2.9057181674728736</v>
-      </c>
-      <c r="R30" s="23">
-        <v>1.152100682565492</v>
-      </c>
-      <c r="S30" s="23">
-        <v>1.1320089148230565</v>
-      </c>
-      <c r="T30" s="23">
-        <v>0</v>
-      </c>
-      <c r="U30" s="23">
-        <v>1.7881600047243631E-14</v>
-      </c>
+      <c r="D30" s="21">
+        <v>1.3293616953299419</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1.1927697115129312</v>
+      </c>
+      <c r="F30" s="21">
+        <v>3.8589034748697193</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1.0935269940451195</v>
+      </c>
+      <c r="H30" s="42">
+        <v>1.2944397195338901E-2</v>
+      </c>
+      <c r="I30" s="44">
+        <v>19.260252107137685</v>
+      </c>
+      <c r="J30" s="40">
+        <v>0.6164386682499754</v>
+      </c>
+      <c r="K30" s="44">
+        <v>14.686843594539788</v>
+      </c>
+      <c r="L30" s="21">
+        <v>8.6960820496494549</v>
+      </c>
+      <c r="M30" s="44">
+        <v>13.116090635611421</v>
+      </c>
+      <c r="N30" s="40">
+        <v>0.63774858568812121</v>
+      </c>
+      <c r="O30" s="40">
+        <v>0.2858377282829615</v>
+      </c>
+      <c r="P30" s="40">
+        <v>0.70671663727788359</v>
+      </c>
+      <c r="Q30" s="44">
+        <v>25.765850506144858</v>
+      </c>
+      <c r="R30" s="21">
+        <v>1.5540216854759628</v>
+      </c>
+      <c r="S30" s="21">
+        <v>6.6339770623954815</v>
+      </c>
+      <c r="T30" s="40">
+        <v>0.89580252732156507</v>
+      </c>
+      <c r="U30" s="21">
+        <v>100.3431680607282</v>
+      </c>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="ALW30" s="2"/>
+      <c r="ALX30" s="2"/>
+      <c r="ALY30" s="2"/>
+      <c r="ALZ30" s="2"/>
     </row>
     <row r="31" spans="1:1014" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A31" s="18"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="23">
-        <v>44.443500010297754</v>
-      </c>
-      <c r="E31" s="23">
-        <v>16.534766670496349</v>
-      </c>
-      <c r="F31" s="23">
-        <v>7.926350608316449</v>
-      </c>
-      <c r="G31" s="23">
-        <v>5.7375674565463024</v>
-      </c>
-      <c r="H31" s="23">
-        <v>7.5604327141334818E-2</v>
-      </c>
-      <c r="I31" s="23">
-        <v>4.594958693199696</v>
-      </c>
-      <c r="J31" s="23">
-        <v>0.15657079383358077</v>
-      </c>
-      <c r="K31" s="23">
-        <v>1.3566468530226532</v>
-      </c>
-      <c r="L31" s="23">
-        <v>1.9565854923456405</v>
-      </c>
-      <c r="M31" s="23">
-        <v>1.4853269855530258</v>
-      </c>
-      <c r="N31" s="23">
-        <v>8.5056577654709538E-3</v>
-      </c>
-      <c r="O31" s="23">
-        <v>6.0743642530644718E-3</v>
-      </c>
-      <c r="P31" s="23">
-        <v>7.6259918108763569E-3</v>
-      </c>
-      <c r="Q31" s="23">
-        <v>11.225300699437618</v>
-      </c>
-      <c r="R31" s="23">
-        <v>1.6122215877878836</v>
-      </c>
-      <c r="S31" s="23">
-        <v>2.8723938081923084</v>
-      </c>
-      <c r="T31" s="23">
-        <v>0</v>
-      </c>
-      <c r="U31" s="23">
-        <v>100</v>
-      </c>
+      <c r="D31" s="22">
+        <v>1.2569495182269215</v>
+      </c>
+      <c r="E31" s="22">
+        <v>1.0664772442753752</v>
+      </c>
+      <c r="F31" s="22">
+        <v>4.748047184950245</v>
+      </c>
+      <c r="G31" s="22">
+        <v>2.1728138661985876</v>
+      </c>
+      <c r="H31" s="43">
+        <v>4.2726785079316106E-2</v>
+      </c>
+      <c r="I31" s="22">
+        <v>5.4279125766079552</v>
+      </c>
+      <c r="J31" s="22">
+        <v>1.695631908186797</v>
+      </c>
+      <c r="K31" s="22">
+        <v>7.8701048658633068</v>
+      </c>
+      <c r="L31" s="22">
+        <v>4.4116457483655775</v>
+      </c>
+      <c r="M31" s="45">
+        <v>10.584936787724322</v>
+      </c>
+      <c r="N31" s="22">
+        <v>1.7762212298799405</v>
+      </c>
+      <c r="O31" s="41">
+        <v>0.72067574661791522</v>
+      </c>
+      <c r="P31" s="22">
+        <v>1.5347009791547535</v>
+      </c>
+      <c r="Q31" s="45">
+        <v>11.671135796325466</v>
+      </c>
+      <c r="R31" s="22">
+        <v>2.1840822851988824</v>
+      </c>
+      <c r="S31" s="22">
+        <v>7.5294606334954262</v>
+      </c>
+      <c r="T31" s="22">
+        <v>3.3962126249136091</v>
+      </c>
+      <c r="U31" s="22">
+        <v>1.9713504231441061</v>
+      </c>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="ALW31" s="2"/>
+      <c r="ALX31" s="2"/>
+      <c r="ALY31" s="2"/>
+      <c r="ALZ31" s="2"/>
     </row>
     <row r="32" spans="1:1014" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="23">
-        <v>8.252973409748229</v>
-      </c>
-      <c r="E32" s="23">
-        <v>9.7357413318494928</v>
-      </c>
-      <c r="F32" s="23">
-        <v>5.717752797634164</v>
-      </c>
-      <c r="G32" s="23">
-        <v>4.1344388491197792</v>
-      </c>
-      <c r="H32" s="23">
-        <v>0.16867871284438826</v>
-      </c>
-      <c r="I32" s="23">
-        <v>1.2161335147073646</v>
-      </c>
-      <c r="J32" s="23">
-        <v>0.43100623859014575</v>
-      </c>
-      <c r="K32" s="23">
-        <v>0.62316723730400581</v>
-      </c>
-      <c r="L32" s="23">
-        <v>0.78445812239997448</v>
-      </c>
-      <c r="M32" s="23">
-        <v>0.62611123116262457</v>
-      </c>
-      <c r="N32" s="23">
-        <v>2.0399635470533351E-2</v>
-      </c>
-      <c r="O32" s="23">
-        <v>1.8099680802909503E-2</v>
-      </c>
-      <c r="P32" s="23">
-        <v>2.5292553490999795E-2</v>
-      </c>
-      <c r="Q32" s="23">
-        <v>2.4899913829017777</v>
-      </c>
-      <c r="R32" s="23">
-        <v>1.2131105422588164</v>
-      </c>
-      <c r="S32" s="23">
-        <v>1.3636872229662778</v>
-      </c>
-      <c r="T32" s="23">
-        <v>0</v>
-      </c>
-      <c r="U32" s="23">
-        <v>2.2015361458940203E-14</v>
-      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="ALW32" s="2"/>
+      <c r="ALX32" s="2"/>
+      <c r="ALY32" s="2"/>
+      <c r="ALZ32" s="2"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>42</v>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="23">
-        <v>1.1521714211294678</v>
+        <v>57.609455762090221</v>
       </c>
       <c r="E33" s="23">
-        <v>1.1134190659760244</v>
+        <v>3.2631259005619948</v>
       </c>
       <c r="F33" s="23">
-        <v>3.1855475563357931</v>
+        <v>9.0004245902664888</v>
       </c>
       <c r="G33" s="23">
-        <v>1.297659548562736</v>
+        <v>5.0494788660708378</v>
       </c>
       <c r="H33" s="23">
-        <v>1.1753123111225408E-2</v>
+        <v>1.7377676162307044E-2</v>
       </c>
       <c r="I33" s="23">
-        <v>18.527086520506202</v>
+        <v>4.159717130241571</v>
       </c>
       <c r="J33" s="23">
-        <v>2.9600107605800362E-2</v>
+        <v>0.10532380902092278</v>
       </c>
       <c r="K33" s="23">
-        <v>14.604559371924822</v>
+        <v>0.77282948351755265</v>
       </c>
       <c r="L33" s="23">
-        <v>8.2521360697479373</v>
+        <v>1.3501585397027243</v>
       </c>
       <c r="M33" s="23">
-        <v>12.01694382117935</v>
+        <v>0.82312792677926372</v>
       </c>
       <c r="N33" s="23">
-        <v>0.48561179294588414</v>
+        <v>5.5189334130878098E-3</v>
       </c>
       <c r="O33" s="23">
-        <v>0.12739725739755575</v>
+        <v>2.9463964373270821E-3</v>
       </c>
       <c r="P33" s="23">
-        <v>0.36971003745613273</v>
+        <v>3.5114940209210179E-3</v>
       </c>
       <c r="Q33" s="23">
-        <v>28.232397679106789</v>
+        <v>13.239396671071894</v>
       </c>
       <c r="R33" s="23">
-        <v>1.5045822533253055</v>
+        <v>1.7246413827608007</v>
       </c>
       <c r="S33" s="23">
-        <v>8.5896749029654256</v>
+        <v>2.8729654378820864</v>
       </c>
       <c r="T33" s="23">
-        <v>0.49974947072354647</v>
+        <v>0</v>
       </c>
       <c r="U33" s="23">
         <v>100</v>
@@ -10788,413 +10959,647 @@
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="23">
-        <v>0.8274757606740929</v>
+        <v>9.0983977460375183</v>
       </c>
       <c r="E34" s="23">
-        <v>0.97884383625152294</v>
+        <v>3.0491285863437021</v>
       </c>
       <c r="F34" s="23">
-        <v>3.5948473558442768</v>
+        <v>3.1000025320395799</v>
       </c>
       <c r="G34" s="23">
-        <v>2.7651118527681153</v>
+        <v>2.6297238406540684</v>
       </c>
       <c r="H34" s="23">
-        <v>4.6598673796764939E-2</v>
+        <v>6.2656102451606327E-2</v>
       </c>
       <c r="I34" s="23">
-        <v>5.3039013901261534</v>
+        <v>2.2981314819106231</v>
       </c>
       <c r="J34" s="23">
-        <v>0.12204437018836356</v>
+        <v>0.14477773619303685</v>
       </c>
       <c r="K34" s="23">
-        <v>6.7013890196074195</v>
+        <v>0.74098076601912</v>
       </c>
       <c r="L34" s="23">
-        <v>4.8549321945532249</v>
+        <v>0.89198135901810893</v>
       </c>
       <c r="M34" s="23">
-        <v>4.4203589959748584</v>
+        <v>1.0361276677932736</v>
       </c>
       <c r="N34" s="23">
-        <v>1.8196881204746505</v>
+        <v>8.8960799587407945E-3</v>
       </c>
       <c r="O34" s="23">
-        <v>0.35652176810183073</v>
+        <v>6.555138014742906E-3</v>
       </c>
       <c r="P34" s="23">
-        <v>0.99126116281311261</v>
+        <v>8.8267154950196994E-3</v>
       </c>
       <c r="Q34" s="23">
-        <v>12.003239998206595</v>
+        <v>2.9057181674728736</v>
       </c>
       <c r="R34" s="23">
-        <v>1.6717333016974374</v>
+        <v>1.152100682565492</v>
       </c>
       <c r="S34" s="23">
-        <v>9.6160996346604666</v>
+        <v>1.1320089148230565</v>
       </c>
       <c r="T34" s="23">
-        <v>1.9317033521109694</v>
+        <v>0</v>
       </c>
       <c r="U34" s="23">
-        <v>1.5072887603364239E-14</v>
+        <v>1.7881600047243631E-14</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="23">
-        <v>1.5176263616679471</v>
+        <v>44.443500010297754</v>
       </c>
       <c r="E35" s="23">
-        <v>1.2770797723958949</v>
+        <v>16.534766670496349</v>
       </c>
       <c r="F35" s="23">
-        <v>4.5743441383120151</v>
+        <v>7.926350608316449</v>
       </c>
       <c r="G35" s="23">
-        <v>0.87663615487015212</v>
+        <v>5.7375674565463024</v>
       </c>
       <c r="H35" s="23">
-        <v>1.4210125909709489E-2</v>
+        <v>7.5604327141334818E-2</v>
       </c>
       <c r="I35" s="23">
-        <v>20.039240542933626</v>
+        <v>4.594958693199696</v>
       </c>
       <c r="J35" s="23">
-        <v>1.2399546389344114</v>
+        <v>0.15657079383358077</v>
       </c>
       <c r="K35" s="23">
-        <v>14.774270581068183</v>
+        <v>1.3566468530226532</v>
       </c>
       <c r="L35" s="23">
-        <v>9.167774653294817</v>
+        <v>1.9565854923456405</v>
       </c>
       <c r="M35" s="23">
-        <v>14.283934125945487</v>
+        <v>1.4853269855530258</v>
       </c>
       <c r="N35" s="23">
-        <v>0.79939392797674824</v>
+        <v>8.5056577654709538E-3</v>
       </c>
       <c r="O35" s="23">
-        <v>0.45418072859870523</v>
+        <v>6.0743642530644718E-3</v>
       </c>
       <c r="P35" s="23">
-        <v>1.0647861495884938</v>
+        <v>7.6259918108763569E-3</v>
       </c>
       <c r="Q35" s="23">
-        <v>23.145144134872801</v>
+        <v>11.225300699437618</v>
       </c>
       <c r="R35" s="23">
-        <v>1.6065510821360356</v>
+        <v>1.6122215877878836</v>
       </c>
       <c r="S35" s="23">
-        <v>4.5560481067899135</v>
+        <v>2.8723938081923084</v>
       </c>
       <c r="T35" s="23">
-        <v>1.3166088999569598</v>
+        <v>0</v>
       </c>
       <c r="U35" s="23">
-        <v>100.70778412525191</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="23">
-        <v>1.6021072109931738</v>
+        <v>8.252973409748229</v>
       </c>
       <c r="E36" s="23">
-        <v>1.1788418837596562</v>
+        <v>9.7357413318494928</v>
       </c>
       <c r="F36" s="23">
-        <v>5.7662350587963935</v>
+        <v>5.717752797634164</v>
       </c>
       <c r="G36" s="23">
-        <v>1.3486113425992794</v>
+        <v>4.1344388491197792</v>
       </c>
       <c r="H36" s="23">
-        <v>3.9686908374660136E-2</v>
+        <v>0.16867871284438826</v>
       </c>
       <c r="I36" s="23">
-        <v>5.6204530707814353</v>
+        <v>1.2161335147073646</v>
       </c>
       <c r="J36" s="23">
-        <v>2.304954646519318</v>
+        <v>0.43100623859014575</v>
       </c>
       <c r="K36" s="23">
-        <v>9.1769943702810934</v>
+        <v>0.62316723730400581</v>
       </c>
       <c r="L36" s="23">
-        <v>3.9897160944225543</v>
+        <v>0.78445812239997448</v>
       </c>
       <c r="M36" s="23">
-        <v>14.674956811361673</v>
+        <v>0.62611123116262457</v>
       </c>
       <c r="N36" s="23">
-        <v>1.7732643912016373</v>
+        <v>2.0399635470533351E-2</v>
       </c>
       <c r="O36" s="23">
-        <v>0.95589543774091579</v>
+        <v>1.8099680802909503E-2</v>
       </c>
       <c r="P36" s="23">
-        <v>1.9264142672355185</v>
+        <v>2.5292553490999795E-2</v>
       </c>
       <c r="Q36" s="23">
-        <v>11.076502616372123</v>
+        <v>2.4899913829017777</v>
       </c>
       <c r="R36" s="23">
-        <v>2.6813692549848471</v>
+        <v>1.2131105422588164</v>
       </c>
       <c r="S36" s="23">
-        <v>3.6565328223139404</v>
+        <v>1.3636872229662778</v>
       </c>
       <c r="T36" s="23">
-        <v>4.5010579963168285</v>
+        <v>0</v>
       </c>
       <c r="U36" s="23">
-        <v>2.8311365010076428</v>
+        <v>2.2015361458940203E-14</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>39</v>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="E37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="F37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="G37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="H37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="I37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="J37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="K37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="L37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="M37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="N37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="O37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="P37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="Q37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="R37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="S37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="T37" s="24">
-        <v>46.806849341317729</v>
-      </c>
-      <c r="U37" s="24">
-        <v>46.806849341317729</v>
+      <c r="D37" s="23">
+        <v>1.1521714211294678</v>
+      </c>
+      <c r="E37" s="23">
+        <v>1.1134190659760244</v>
+      </c>
+      <c r="F37" s="23">
+        <v>3.1855475563357931</v>
+      </c>
+      <c r="G37" s="23">
+        <v>1.297659548562736</v>
+      </c>
+      <c r="H37" s="23">
+        <v>1.1753123111225408E-2</v>
+      </c>
+      <c r="I37" s="23">
+        <v>18.527086520506202</v>
+      </c>
+      <c r="J37" s="23">
+        <v>2.9600107605800362E-2</v>
+      </c>
+      <c r="K37" s="23">
+        <v>14.604559371924822</v>
+      </c>
+      <c r="L37" s="23">
+        <v>8.2521360697479373</v>
+      </c>
+      <c r="M37" s="23">
+        <v>12.01694382117935</v>
+      </c>
+      <c r="N37" s="23">
+        <v>0.48561179294588414</v>
+      </c>
+      <c r="O37" s="23">
+        <v>0.12739725739755575</v>
+      </c>
+      <c r="P37" s="23">
+        <v>0.36971003745613273</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>28.232397679106789</v>
+      </c>
+      <c r="R37" s="23">
+        <v>1.5045822533253055</v>
+      </c>
+      <c r="S37" s="23">
+        <v>8.5896749029654256</v>
+      </c>
+      <c r="T37" s="23">
+        <v>0.49974947072354647</v>
+      </c>
+      <c r="U37" s="23">
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="E38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="F38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="G38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="H38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="I38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="J38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="K38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="L38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="M38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="N38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="O38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="P38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="Q38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="R38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="S38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="T38" s="24">
-        <v>10.597372429452482</v>
-      </c>
-      <c r="U38" s="24">
-        <v>10.597372429452482</v>
+      <c r="D38" s="23">
+        <v>0.8274757606740929</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0.97884383625152294</v>
+      </c>
+      <c r="F38" s="23">
+        <v>3.5948473558442768</v>
+      </c>
+      <c r="G38" s="23">
+        <v>2.7651118527681153</v>
+      </c>
+      <c r="H38" s="23">
+        <v>4.6598673796764939E-2</v>
+      </c>
+      <c r="I38" s="23">
+        <v>5.3039013901261534</v>
+      </c>
+      <c r="J38" s="23">
+        <v>0.12204437018836356</v>
+      </c>
+      <c r="K38" s="23">
+        <v>6.7013890196074195</v>
+      </c>
+      <c r="L38" s="23">
+        <v>4.8549321945532249</v>
+      </c>
+      <c r="M38" s="23">
+        <v>4.4203589959748584</v>
+      </c>
+      <c r="N38" s="23">
+        <v>1.8196881204746505</v>
+      </c>
+      <c r="O38" s="23">
+        <v>0.35652176810183073</v>
+      </c>
+      <c r="P38" s="23">
+        <v>0.99126116281311261</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>12.003239998206595</v>
+      </c>
+      <c r="R38" s="23">
+        <v>1.6717333016974374</v>
+      </c>
+      <c r="S38" s="23">
+        <v>9.6160996346604666</v>
+      </c>
+      <c r="T38" s="23">
+        <v>1.9317033521109694</v>
+      </c>
+      <c r="U38" s="23">
+        <v>1.5072887603364239E-14</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>38</v>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="E39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="F39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="G39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="H39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="I39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="J39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="K39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="L39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="M39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="N39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="O39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="P39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="Q39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="R39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="S39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="T39" s="25">
-        <v>0.84159575315559376</v>
-      </c>
-      <c r="U39" s="25">
-        <v>0.84159575315559376</v>
+      <c r="D39" s="23">
+        <v>1.5176263616679471</v>
+      </c>
+      <c r="E39" s="23">
+        <v>1.2770797723958949</v>
+      </c>
+      <c r="F39" s="23">
+        <v>4.5743441383120151</v>
+      </c>
+      <c r="G39" s="23">
+        <v>0.87663615487015212</v>
+      </c>
+      <c r="H39" s="23">
+        <v>1.4210125909709489E-2</v>
+      </c>
+      <c r="I39" s="23">
+        <v>20.039240542933626</v>
+      </c>
+      <c r="J39" s="23">
+        <v>1.2399546389344114</v>
+      </c>
+      <c r="K39" s="23">
+        <v>14.774270581068183</v>
+      </c>
+      <c r="L39" s="23">
+        <v>9.167774653294817</v>
+      </c>
+      <c r="M39" s="23">
+        <v>14.283934125945487</v>
+      </c>
+      <c r="N39" s="23">
+        <v>0.79939392797674824</v>
+      </c>
+      <c r="O39" s="23">
+        <v>0.45418072859870523</v>
+      </c>
+      <c r="P39" s="23">
+        <v>1.0647861495884938</v>
+      </c>
+      <c r="Q39" s="23">
+        <v>23.145144134872801</v>
+      </c>
+      <c r="R39" s="23">
+        <v>1.6065510821360356</v>
+      </c>
+      <c r="S39" s="23">
+        <v>4.5560481067899135</v>
+      </c>
+      <c r="T39" s="23">
+        <v>1.3166088999569598</v>
+      </c>
+      <c r="U39" s="23">
+        <v>100.70778412525191</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="25">
+      <c r="D40" s="23">
+        <v>1.6021072109931738</v>
+      </c>
+      <c r="E40" s="23">
+        <v>1.1788418837596562</v>
+      </c>
+      <c r="F40" s="23">
+        <v>5.7662350587963935</v>
+      </c>
+      <c r="G40" s="23">
+        <v>1.3486113425992794</v>
+      </c>
+      <c r="H40" s="23">
+        <v>3.9686908374660136E-2</v>
+      </c>
+      <c r="I40" s="23">
+        <v>5.6204530707814353</v>
+      </c>
+      <c r="J40" s="23">
+        <v>2.304954646519318</v>
+      </c>
+      <c r="K40" s="23">
+        <v>9.1769943702810934</v>
+      </c>
+      <c r="L40" s="23">
+        <v>3.9897160944225543</v>
+      </c>
+      <c r="M40" s="23">
+        <v>14.674956811361673</v>
+      </c>
+      <c r="N40" s="23">
+        <v>1.7732643912016373</v>
+      </c>
+      <c r="O40" s="23">
+        <v>0.95589543774091579</v>
+      </c>
+      <c r="P40" s="23">
+        <v>1.9264142672355185</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>11.076502616372123</v>
+      </c>
+      <c r="R40" s="23">
+        <v>2.6813692549848471</v>
+      </c>
+      <c r="S40" s="23">
+        <v>3.6565328223139404</v>
+      </c>
+      <c r="T40" s="23">
+        <v>4.5010579963168285</v>
+      </c>
+      <c r="U40" s="23">
+        <v>2.8311365010076428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="E41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="F41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="G41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="H41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="I41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="J41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="K41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="L41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="M41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="N41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="O41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="P41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="Q41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="R41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="S41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="T41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+      <c r="U41" s="24">
+        <v>46.806849341317729</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="E42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="F42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="G42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="H42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="I42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="J42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="K42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="L42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="M42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="N42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="O42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="P42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="Q42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="R42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="S42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="T42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+      <c r="U42" s="24">
+        <v>10.597372429452482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="E43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="F43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="G43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="H43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="I43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="J43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="K43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="L43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="M43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="N43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="O43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="P43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="Q43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="R43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="S43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="T43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+      <c r="U43" s="25">
+        <v>0.84159575315559376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="L40" s="25">
+      <c r="L44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="M40" s="25">
+      <c r="M44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="N40" s="25">
+      <c r="N44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="O40" s="25">
+      <c r="O44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="P40" s="25">
+      <c r="P44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="Q40" s="25">
+      <c r="Q44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="R40" s="25">
+      <c r="R44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="S40" s="25">
+      <c r="S44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="T40" s="25">
+      <c r="T44" s="25">
         <v>0.21872160015832073</v>
       </c>
-      <c r="U40" s="25">
+      <c r="U44" s="25">
         <v>0.21872160015832073</v>
       </c>
     </row>
